--- a/data/trans_orig/q27a-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/q27a-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50E05F9F-FCA4-4FEE-A69E-B194E0AF8AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A80B699-E71D-43B8-AA0E-65CCA0BF0DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F68DC143-099F-42DA-AC69-28850A7CCE27}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E8AF5AED-5663-4EA4-A87D-74D457696A3C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="170">
   <si>
     <t>Población según el número de personas que fuman habitualmente en su casa en 2007 (Tasa respuesta: 30,33%)</t>
   </si>
@@ -86,46 +86,46 @@
     <t>1,27%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
   </si>
   <si>
     <t>2,16%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
   </si>
   <si>
     <t>4,49%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
   </si>
   <si>
     <t>4,82%</t>
@@ -134,61 +134,61 @@
     <t>3,29%</t>
   </si>
   <si>
-    <t>7,01%</t>
+    <t>7,05%</t>
   </si>
   <si>
     <t>22,27%</t>
   </si>
   <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
   </si>
   <si>
     <t>21,77%</t>
   </si>
   <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
   </si>
   <si>
     <t>21,95%</t>
   </si>
   <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
   </si>
   <si>
     <t>71,04%</t>
   </si>
   <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
   </si>
   <si>
     <t>71,58%</t>
   </si>
   <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
   </si>
   <si>
     <t>71,39%</t>
   </si>
   <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
   </si>
   <si>
     <t>100%</t>
@@ -206,7 +206,7 @@
     <t>0,14%</t>
   </si>
   <si>
-    <t>1,17%</t>
+    <t>1,19%</t>
   </si>
   <si>
     <t>0,24%</t>
@@ -215,7 +215,7 @@
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,72%</t>
+    <t>0,64%</t>
   </si>
   <si>
     <t>0,65%</t>
@@ -224,307 +224,304 @@
     <t>0,16%</t>
   </si>
   <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
   </si>
   <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
+    <t>1,76%</t>
   </si>
   <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
   </si>
   <si>
     <t>4,71%</t>
   </si>
   <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
   </si>
   <si>
     <t>4,47%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
+    <t>3,55%</t>
   </si>
   <si>
     <t>20,88%</t>
   </si>
   <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
   </si>
   <si>
     <t>18,37%</t>
   </si>
   <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
+    <t>16,3%</t>
   </si>
   <si>
     <t>19,46%</t>
   </si>
   <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
   </si>
   <si>
     <t>74,04%</t>
   </si>
   <si>
-    <t>71,18%</t>
+    <t>70,91%</t>
   </si>
   <si>
     <t>76,95%</t>
@@ -533,19 +530,19 @@
     <t>75,12%</t>
   </si>
   <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
   </si>
   <si>
     <t>74,65%</t>
   </si>
   <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -960,7 +957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398A4B7A-3D83-4593-97CE-BE5DCFED638B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A194F54D-488C-4623-90BA-52770D56FF13}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1494,13 +1491,13 @@
         <v>14221</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H12" s="7">
         <v>31</v>
@@ -1509,13 +1506,13 @@
         <v>32222</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M12" s="7">
         <v>46</v>
@@ -1524,13 +1521,13 @@
         <v>46443</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1545,13 +1542,13 @@
         <v>116929</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>110</v>
@@ -1560,13 +1557,13 @@
         <v>109090</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>225</v>
@@ -1575,13 +1572,13 @@
         <v>226019</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1596,13 +1593,13 @@
         <v>400147</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>484</v>
@@ -1611,13 +1608,13 @@
         <v>495253</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>873</v>
@@ -1626,13 +1623,13 @@
         <v>895400</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1688,7 +1685,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5">
         <v>5</v>
@@ -1706,7 +1703,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1721,7 +1718,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1736,7 +1733,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1751,13 +1748,13 @@
         <v>1944</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -1766,13 +1763,13 @@
         <v>1922</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -1781,13 +1778,13 @@
         <v>3866</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,13 +1799,13 @@
         <v>10971</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -1817,13 +1814,13 @@
         <v>5039</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
@@ -1832,13 +1829,13 @@
         <v>16010</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1853,13 +1850,13 @@
         <v>19761</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -1868,13 +1865,13 @@
         <v>20646</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M19" s="7">
         <v>39</v>
@@ -1883,13 +1880,13 @@
         <v>40407</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1904,13 +1901,13 @@
         <v>100567</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H20" s="7">
         <v>95</v>
@@ -1919,13 +1916,13 @@
         <v>99524</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>189</v>
@@ -1934,13 +1931,13 @@
         <v>200091</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,7 +2011,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2023,13 +2020,13 @@
         <v>2836</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>58</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -2041,10 +2038,10 @@
         <v>55</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,13 +2056,13 @@
         <v>8038</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>18</v>
@@ -2074,13 +2071,13 @@
         <v>17683</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>27</v>
@@ -2089,13 +2086,13 @@
         <v>25721</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2110,13 +2107,13 @@
         <v>36253</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H24" s="7">
         <v>52</v>
@@ -2125,13 +2122,13 @@
         <v>53852</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M24" s="7">
         <v>89</v>
@@ -2140,13 +2137,13 @@
         <v>90105</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>151</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,7 +2179,7 @@
         <v>156</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="M25" s="7">
         <v>387</v>
@@ -2191,13 +2188,13 @@
         <v>392312</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2212,13 +2209,13 @@
         <v>645667</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H26" s="7">
         <v>841</v>
@@ -2227,13 +2224,13 @@
         <v>859294</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M26" s="7">
         <v>1469</v>
@@ -2242,13 +2239,13 @@
         <v>1504962</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,7 +2301,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/q27a-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/q27a-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A80B699-E71D-43B8-AA0E-65CCA0BF0DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9A86CA7-680B-4694-83F1-B037D3F17C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E8AF5AED-5663-4EA4-A87D-74D457696A3C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{65652B74-FDB0-4306-8D34-7078FF275893}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -89,343 +89,352 @@
     <t>0,39%</t>
   </si>
   <si>
-    <t>3,46%</t>
+    <t>3,37%</t>
   </si>
   <si>
     <t>2,16%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
   </si>
   <si>
     <t>4,49%</t>
   </si>
   <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,51%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
     <t>0,77%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
   </si>
   <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>3,45%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
   </si>
   <si>
     <t>8,23%</t>
   </si>
   <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
   </si>
   <si>
     <t>3,96%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
   </si>
   <si>
     <t>14,83%</t>
   </si>
   <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
   </si>
   <si>
     <t>16,24%</t>
   </si>
   <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
   </si>
   <si>
     <t>15,52%</t>
   </si>
   <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
   </si>
   <si>
     <t>75,48%</t>
   </si>
   <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
   </si>
   <si>
     <t>78,28%</t>
   </si>
   <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
   </si>
   <si>
     <t>76,85%</t>
   </si>
   <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
   </si>
   <si>
     <t>0,22%</t>
@@ -434,9 +443,6 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
     <t>0,04%</t>
   </si>
   <si>
@@ -446,25 +452,19 @@
     <t>0,92%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
   </si>
   <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>0,86%</t>
+    <t>0,87%</t>
   </si>
   <si>
     <t>1,82%</t>
@@ -473,76 +473,76 @@
     <t>4,16%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
   </si>
   <si>
     <t>4,71%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
   </si>
   <si>
     <t>4,47%</t>
   </si>
   <si>
-    <t>3,55%</t>
+    <t>5,39%</t>
   </si>
   <si>
     <t>20,88%</t>
   </si>
   <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
   </si>
   <si>
     <t>18,37%</t>
   </si>
   <si>
-    <t>16,3%</t>
+    <t>20,62%</t>
   </si>
   <si>
     <t>19,46%</t>
   </si>
   <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
   </si>
   <si>
     <t>74,04%</t>
   </si>
   <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
   </si>
   <si>
     <t>75,12%</t>
   </si>
   <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
   </si>
   <si>
     <t>74,65%</t>
   </si>
   <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -957,7 +957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A194F54D-488C-4623-90BA-52770D56FF13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4055F501-2ADE-4EA9-A4C7-E3C1C21E9DB0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1491,13 +1491,13 @@
         <v>14221</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H12" s="7">
         <v>31</v>
@@ -1506,13 +1506,13 @@
         <v>32222</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M12" s="7">
         <v>46</v>
@@ -1521,13 +1521,13 @@
         <v>46443</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1542,13 +1542,13 @@
         <v>116929</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>110</v>
@@ -1557,13 +1557,13 @@
         <v>109090</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>225</v>
@@ -1572,13 +1572,13 @@
         <v>226019</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1593,13 +1593,13 @@
         <v>400147</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>484</v>
@@ -1608,13 +1608,13 @@
         <v>495253</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>873</v>
@@ -1623,13 +1623,13 @@
         <v>895400</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1685,7 +1685,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5">
         <v>5</v>
@@ -1703,7 +1703,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1718,7 +1718,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1748,13 +1748,13 @@
         <v>1944</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -1763,13 +1763,13 @@
         <v>1922</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -1778,13 +1778,13 @@
         <v>3866</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1799,13 +1799,13 @@
         <v>10971</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -1814,13 +1814,13 @@
         <v>5039</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
@@ -1829,13 +1829,13 @@
         <v>16010</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1850,13 +1850,13 @@
         <v>19761</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -1865,13 +1865,13 @@
         <v>20646</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M19" s="7">
         <v>39</v>
@@ -1880,13 +1880,13 @@
         <v>40407</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1901,13 +1901,13 @@
         <v>100567</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>95</v>
@@ -1916,13 +1916,13 @@
         <v>99524</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>189</v>
@@ -1931,13 +1931,13 @@
         <v>200091</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2011,7 +2011,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2020,13 +2020,13 @@
         <v>2836</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>58</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -2038,10 +2038,10 @@
         <v>55</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2056,13 +2056,13 @@
         <v>8038</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H23" s="7">
         <v>18</v>
@@ -2071,13 +2071,13 @@
         <v>17683</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="M23" s="7">
         <v>27</v>
@@ -2140,10 +2140,10 @@
         <v>150</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2176,10 +2176,10 @@
         <v>155</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M25" s="7">
         <v>387</v>

--- a/data/trans_orig/q27a-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/q27a-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9A86CA7-680B-4694-83F1-B037D3F17C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D41646D-58C8-4063-9790-5F1155FA36ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{65652B74-FDB0-4306-8D34-7078FF275893}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ED05C85A-780C-4CF0-8124-A70D70B8426D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="171">
   <si>
     <t>Población según el número de personas que fuman habitualmente en su casa en 2007 (Tasa respuesta: 30,33%)</t>
   </si>
@@ -86,100 +86,100 @@
     <t>1,27%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
   </si>
   <si>
     <t>2,16%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
   </si>
   <si>
     <t>4,49%</t>
   </si>
   <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
   </si>
   <si>
     <t>22,27%</t>
   </si>
   <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
   </si>
   <si>
     <t>21,77%</t>
   </si>
   <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
   </si>
   <si>
     <t>21,95%</t>
   </si>
   <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
   </si>
   <si>
     <t>71,04%</t>
   </si>
   <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
   </si>
   <si>
     <t>71,58%</t>
   </si>
   <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
   </si>
   <si>
     <t>71,39%</t>
@@ -188,7 +188,7 @@
     <t>67,63%</t>
   </si>
   <si>
-    <t>74,86%</t>
+    <t>74,72%</t>
   </si>
   <si>
     <t>100%</t>
@@ -215,7 +215,7 @@
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,73%</t>
+    <t>0,72%</t>
   </si>
   <si>
     <t>0,65%</t>
@@ -224,40 +224,40 @@
     <t>0,16%</t>
   </si>
   <si>
-    <t>1,66%</t>
+    <t>1,56%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
   </si>
   <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
   </si>
   <si>
     <t>4,98%</t>
   </si>
   <si>
-    <t>3,49%</t>
+    <t>3,5%</t>
   </si>
   <si>
     <t>6,93%</t>
@@ -266,64 +266,64 @@
     <t>3,93%</t>
   </si>
   <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
   </si>
   <si>
     <t>21,86%</t>
   </si>
   <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
   </si>
   <si>
     <t>16,86%</t>
   </si>
   <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
   </si>
   <si>
     <t>19,12%</t>
   </si>
   <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
   </si>
   <si>
     <t>74,82%</t>
   </si>
   <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
   </si>
   <si>
     <t>76,53%</t>
   </si>
   <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
   </si>
   <si>
     <t>75,76%</t>
   </si>
   <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -332,19 +332,16 @@
     <t>1,51%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
     <t>0,77%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
   </si>
   <si>
     <t>1,48%</t>
@@ -353,88 +350,88 @@
     <t>0,38%</t>
   </si>
   <si>
-    <t>3,62%</t>
+    <t>3,77%</t>
   </si>
   <si>
     <t>8,23%</t>
   </si>
   <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
   </si>
   <si>
     <t>3,96%</t>
   </si>
   <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
   </si>
   <si>
     <t>14,83%</t>
   </si>
   <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
   </si>
   <si>
     <t>16,24%</t>
   </si>
   <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
   </si>
   <si>
     <t>15,52%</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
   </si>
   <si>
     <t>75,48%</t>
   </si>
   <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
   </si>
   <si>
     <t>78,28%</t>
   </si>
   <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
   </si>
   <si>
     <t>76,85%</t>
   </si>
   <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
   </si>
   <si>
     <t>0,22%</t>
@@ -443,106 +440,112 @@
     <t>0,25%</t>
   </si>
   <si>
+    <t>0,74%</t>
+  </si>
+  <si>
     <t>0,04%</t>
   </si>
   <si>
-    <t>0,42%</t>
+    <t>0,45%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
   </si>
   <si>
     <t>4,71%</t>
   </si>
   <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
   </si>
   <si>
     <t>4,47%</t>
   </si>
   <si>
-    <t>5,39%</t>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
   </si>
   <si>
     <t>20,88%</t>
   </si>
   <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
   </si>
   <si>
     <t>18,37%</t>
   </si>
   <si>
-    <t>20,62%</t>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
   </si>
   <si>
     <t>19,46%</t>
   </si>
   <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
   </si>
   <si>
     <t>74,04%</t>
   </si>
   <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
   </si>
   <si>
     <t>75,12%</t>
   </si>
   <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
   </si>
   <si>
     <t>74,65%</t>
   </si>
   <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -957,7 +960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4055F501-2ADE-4EA9-A4C7-E3C1C21E9DB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664D5902-5718-4AC3-9CD6-3066694650BD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1718,7 +1721,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1733,7 +1736,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1748,13 +1751,13 @@
         <v>1944</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -1769,7 +1772,7 @@
         <v>10</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -1778,13 +1781,13 @@
         <v>3866</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1799,13 +1802,13 @@
         <v>10971</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -1814,13 +1817,13 @@
         <v>5039</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
@@ -1829,13 +1832,13 @@
         <v>16010</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1850,13 +1853,13 @@
         <v>19761</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -1865,13 +1868,13 @@
         <v>20646</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M19" s="7">
         <v>39</v>
@@ -1880,13 +1883,13 @@
         <v>40407</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1901,13 +1904,13 @@
         <v>100567</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>95</v>
@@ -1916,13 +1919,13 @@
         <v>99524</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>189</v>
@@ -1931,13 +1934,13 @@
         <v>200091</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2011,7 +2014,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2020,13 +2023,13 @@
         <v>2836</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>58</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -2059,10 +2062,10 @@
         <v>137</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H23" s="7">
         <v>18</v>
@@ -2071,13 +2074,13 @@
         <v>17683</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>27</v>
@@ -2086,13 +2089,13 @@
         <v>25721</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2107,13 +2110,13 @@
         <v>36253</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H24" s="7">
         <v>52</v>
@@ -2122,13 +2125,13 @@
         <v>53852</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M24" s="7">
         <v>89</v>
@@ -2137,10 +2140,10 @@
         <v>90105</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>151</v>
@@ -2176,10 +2179,10 @@
         <v>155</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M25" s="7">
         <v>387</v>
@@ -2188,13 +2191,13 @@
         <v>392312</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2209,13 +2212,13 @@
         <v>645667</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H26" s="7">
         <v>841</v>
@@ -2224,13 +2227,13 @@
         <v>859294</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M26" s="7">
         <v>1469</v>
@@ -2239,13 +2242,13 @@
         <v>1504962</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2301,7 +2304,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/q27a-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/q27a-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D41646D-58C8-4063-9790-5F1155FA36ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F198DE4E-E9D2-41F8-831F-EF81AA3DC489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ED05C85A-780C-4CF0-8124-A70D70B8426D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{273323BB-377E-42CA-867E-AB1BBD908F5E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -960,7 +960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664D5902-5718-4AC3-9CD6-3066694650BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D47D58D-8E90-4DF3-B754-6B14675CE65D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
